--- a/QQ-Q&A-LIST.xlsx
+++ b/QQ-Q&A-LIST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="620" windowWidth="35760" windowHeight="21100" tabRatio="500"/>
+    <workbookView xWindow="10180" yWindow="0" windowWidth="35760" windowHeight="21100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="C2C" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,6 +578,374 @@
 2、纯文本
 3、超连接（文本提示+网页地址）
 不知道第三方式是否能满足BNS形式的xml的表示，如果表示不了，只能第二种方式，传给qqsvr，如果纯文本是网址，新版的qq客户端也会自动展示成超链接的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给群取名，可以是30个char，汉字根据编码有区别，分别是GBK15个，UTF8 10个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群名称长度与限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群昵称长度与限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群昵称，按照UTF8编码，限制21个char，7个汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ昵称  好友备注 的编码和限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是按UTF8限制24个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家信息中没有对头像的容量限制等信息。这些信息会让游戏系统结构产生改变，请把这些信息告诉我们。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个问题没看明白什么意思，目前拉取的头像信息只是int型变量id，客户端根据头像id自动匹配图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要确认最近联系人或群成员的状态信息（在线或离线），游戏是否要用 PullStatusReq协议周期性地地进行确认？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要周期拉取，5分钟拉取一次,拉取频率不能太高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入群
+依你们的提案所叙述，是否认可加入群只由PC-QQ来进行，其结果通过群公告信息传送到游戏，游戏保持相关状态。正值此时，如果游戏进行定期维修，该怎么处理呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步失败，需要帮主主动邀请一次；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接发QQ信息（Message）的时候，这些信息都要显示在游戏聊天窗与BNSQQ，是否这样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在聊天窗的信息发送人要以现在的角色名显示，从PCQQ发过来的信息要如何显示？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按“聊天记录删除”按钮时，是否都要删除现在的聊天内容与以前的聊天记录？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按“聊天记录查看”按钮时，要把聊天记录显示在BNSQQ的那个位置上？请把相关UI示例供我们参考。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在C2C与QQ群的策划提案中，未找到韩方所说的“两天记录查看”按钮。
+本人理解，韩方是指“历史消息”按钮，点击该按钮时，所有历史消息都会按照时间从旧到新的顺序排列显示在下图窗口中。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在尚未确认的信息积累的情况下，如果客户端结束，这些尚未确认的信息都可以删掉吗？（聊天日志数量有限制，超过限制数量的会不能存储。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">首先需与韩方确认名字定义：聊天日志是否等于BNS QQ保存在本地的历史消息；
+另外，聊天日志的数量限制是多少？
+如果不是，则：
+尚未确认的信息，都应该成为聊天历史消息记录在本地；但客户端关闭时，在聊天日志里的，可以删除；之后用户可以进BNS QQ查看历史消息；
+如果是，则，不能删除，这些历史消息在策划提案中是保存在本地的；
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天日志最多要显示出多少个？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天日志一次只显示最近7填的聊天内容，用户是可以通过滚动垂直滚动条，连续查看历史消息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了让用户辨认出自己的聊天日志文件，文件名上能否使用QQ ID？（如果把所有聊天日志存储在同一个文件上，文件大小会越来越大，而且会有安全上的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用qq号码，只要保证聊天记录加密安全就可以了，pc qq是当文件超过一定大小时提醒用户清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入表情图标时，除了利用表情图标UI的方式以外，还需要输入Command的方式吗？如果需要，请把Command相关的内容提供给我们。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要command方式，command命令详见“表情命令Command.xlsx”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ昵称与角色名不是相同的吧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同qq昵称是qq用户资料，角色名是游戏资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近联系人列表上的联系人名额满的时候，其后的处理流程是如何？是用户自己进行删除处理，还是以包括在联系人列表的时间为准系统自动删除呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只保留最近一直在聊天的，联系人名额建议50个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己的信息（昵称、头像、QQ Sign）显示在最近联系人列表的最上端。
+要是如此，请说明一下把自己的信息显示在最上端的目的与理由。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCQQ上勾选拒绝进行临时对话的选项（第12页）
+在PCQQ勾选拒绝临时对话的选项，游戏里面可以接收从PCQQ发送过来的临时对话。
+但是PCQQ上不接收从游戏里发送过来的临时对话，那么是否要给游戏的发送方提示PCQQ的对方不接收临时对话的事实？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2C聊天页签是否设为默认？要是设为默认的话，基本过滤设置要如何？
+C2C聊天页签要设为默认，需要基本过滤相关的信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一期最近联系人名额为100个。
+最近联系人名额，你们最后要扩大到多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ头像相关
+QQ头像，你们最后要发展成什么样子？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 页签闪亮相关
+这影响到剑灵整体聊天页签的方向性。如果所有聊天页签都闪亮会导致整个聊天窗UI显得生硬，只有QQ相关页签闪亮会影响到玩家的游戏体验，所以这个需要重新考虑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音控制面板相关
+需要更详细的内容。只是考虑关闭音量与提示音量两个功能吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注
+备注的输入与更改是否只能在PCQQ上进行？C2C与帮派QQ群绑定都要提供备注功能？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2C临时对话
+BNS-QQ面板上，玩家可以任意选择列表上的某个人进行临时对话，请详细地说明一下如何跟他进行临时对话。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒接加入群的邀请 
+成功绑定后，邀请帮派成员加入QQ群，如果帮派成员拒绝，他一直没有办法加入QQ群，直到重新接收加入邀请为止吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字 + 图标显示
+游戏里只是显示文字与图标，图像及视频只是以文字形式显示，也不提供链接功能。
+最后还是如此吗？PC-QQ上能否支持道具的Image标签链接功能？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ群所有成员的列表
+游戏客户端上无法接收绑定群所有群员的信息吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Bns-QQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <charset val="129"/>
+      </rPr>
+      <t>멤버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="-0.24994659260841701"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Bns-QQ群成员列表上不用显示自己的信息，是否这样？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第一期BNS-QQ群成员的名额为100个， 你们最后要扩大到多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定后聊天窗的帮派页签
+据提案书所叙述，绑定后聊天窗的帮派页签上要显示出帮派聊天与群消息，这个需要进一步的讨论。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signature.session_key
+TCLS定期换一次byarrGameSignature是以前没听说过的，为了拿来相关内容的最新版本，游戏客户端该采取什么样的行动？请详细地说明一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已与QQServer(Imagent, OIDB)进行通行，就意味着是已经通过验证的BNS服务器，所以不用再次进行验证。不是这样吗？(据protobuf协议文件上所叙述，只有原始IP尚未注册，才要输入signature。)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQSvr 통신 메커니즘 관련.
+基本的内容明白了，不过现在没对确认Ping或QQServer是否正常的特殊包做定义，那么游戏是否通过发送请求包来做出判断？要是如此，特定的请求上会出现延时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGENT_C2CMSG_SEND
+据文件所叙述，C2C消息下行传送协议为IMAGENT_C2CMSG_SEND（第7项），C2C消息上行协议传送协议为IMAGENT_C2CMSG_SEND_ESP（第8项），是否写错，请确认一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ð  我们了解的内容如下；
+A.     对发送方而言，有MSG_1、MSG_2、MSG_3的时候，分别至少重试8次，在MSG_1、MSG_2、MSG_3当中有一个消息失败8次就会丢弃所有消息，向玩家告知失败。（以后玩家进行重试）
+B.      对接收方而言，在1分钟之内没有接收MSG_1、MSG_2、MSG_3，就会丢弃这些消息。
+ð  在上述前提下，如果接收方在1分钟之内接收MSG_1和MSG_3，超过1分钟后才接收MSG_2。
+ð  也就是说，BNSServer在丢弃MSG_1与MSG_3的情况下接收MSG_2，可否以OK发送应答？
+(如果要以Fail发送，就需要由BNSServer继续保持相关消息，因此需要更详细的指导原则。)
+ð  此外，事先想告诉的是，游戏客户端不与protobuf程序库联调，只有BNSServer与protobuf程序库联调，因此分包及重组都由BNSServer来做。
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ð  首先，我们所说的Receiver是指实际上接收消息的玩家。总之，QQServer来判断BNSQQ是否在线后传送imagent，所以如果BNSQQ不在线，不会发送下行协议到BNSServer。是否这样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OIDB API
+如果有形成api时以Input使用的协议整理文件（xml或其他格式的文件），能否供我们参考？
+（例如，IDIP的bns_n_idip.xml或TLOG的log_template_20120705.xml)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OIDB API
+ð  通过提供的文件，基本的协议已经明白了。
+能否提供适用于Windows的API？
+ i.如果不能提供的话，OIDB_API_README_kr.doc文件里的oidbcomm部分（socket通信以及重组包的阶段）要由我们来重新开发。
+ii.除了原代码以外，还需要开发指导原则（传送算法、加密或验证）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCLS底层会自动续签名，需要游戏客户端定期（每隔一个小时）主动调用一下RequestST函数
+byarrGameSignature就会更新为最新的签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNSserver和QQSVr是无连接无session的通信，都是通过简单的udp包一对一请求应答的方式交互的，
+所以需要每个发往QQSvr的请求包都要带上登录态stkey签名，进行验证；协议文档中提到的报备ip
+不需要验证登录态stkey的情况，不适用剑灵qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于服务器调度策略，ping QQsvr是否正常不另外使用的特殊的ping包，就直接使用实际的请求包进行判断，
+这是可能会影响请求包延迟，这个由客户端重试逻辑保证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNSQQ c2c上行使用的命令是IMAGENT_C2CMSG_SEND_ESP; BNSQQ c2c下行使用的命令是IMAGENT_C2CMSG_SEND 
+这个确认是这样的，
+协议文档里描述的c2c消息上行是指BNSSvr发往QQSvr的消息请求;c2c消息下行是指QQSvr发往BNSSvr的消息请求
+BNSQQc2c消息上行之所以使用单独的IMAGENT_C2CMSG_SEND_ESP命令是因为QQSvr需要单独对BNS业务做特殊处理
+（比如只有游戏关系的消息，原本在qq消息系统中是不允许的，但是因为对BNSSvr已经认证的关系，也允许发送
+消息，见IMAGENT_C2CMSG_SEND_ESP协议中BU_FRIEND = 520; // 非QQ关系，业务方关系已鉴定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于消息分包
+请NC告知BNSSvr和游戏客户端消息传送机制，我们一起来看一下是否能保证和现有的消息体验一样
+qq消息系统的消息机制我这边再描述一下
+A用给B用户发送消息
+a、A-&gt;QQSvr上行消息过程
+A先把消息（分包或者不分包）发给QQSVR,QQSvr只对每个消息子包(即MSG_1、MSG_2)进行收到确认
+至于用户发起的原始消息是否全部传送完毕，由客户端逻辑判断，如果其中任何一个消息子包尝试8次失败，
+提示用户消息发送失败，用户重试消息重新分包，重新发送
+b、QQSvr-&gt;B下行消息过程
+QQSvr完全不关心消息是否分包，只是对每个消息子包多次尝试发送给B
+用户B对收到的各个消息子包分别进行收到确认，并对子包进行拼包处理，
+1分钟内所有子包没有到达，就全部丢弃
+因此如果BNSSvr来完成拼包处理，也需要对每个消息子包进行收到确认，发送ok应答
+而且B用户最终收到完整消息并且已读，需要再通过IMAGENT_CONFIRM_READ_MSG协议确认消息已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于下行消息，是的BNSqq不在线，QQSvr不会通过imagent给BNSSvr发送消息，
+需要说明的是QQSvr保存的在线状态是由BNSSvr通过状态上报同步给QQSvr的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于oidbAPI，抱歉我们目前无法提供windowsAPI，oidbcomm库也无法提供给NC，
+和oidb的通信协议没有任何加密算法，就是完全按照协议文档的格式，顺序组包，
+然后通过一个udp包发送就可以，参考linux下的API应该很容易实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果A已经加入QQ群，帮主重新邀请A加入qq群，QQSvr收到BNSSvr的加群请求不会有问题，
+也会返回成功，同时QQSvr还会通过imagent下发A加入QQ群的通知给BNSSvr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近人联系列表都是其他人的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多到500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不明白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,7 +1147,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,9 +1156,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,9 +1163,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,9 +1187,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -840,6 +1199,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -862,8 +1224,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -961,6 +1326,127 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4711700" y="5549900"/>
+          <a:ext cx="2679700" cy="4432300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="74998"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1295,61 +1781,61 @@
   </sheetPr>
   <dimension ref="B1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="2.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="34" customHeight="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="3" spans="2:7" ht="20">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="20">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="26" customHeight="1">
       <c r="B7" s="1" t="s">
@@ -1361,7 +1847,7 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1372,994 +1858,1068 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="34">
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="51">
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>3</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="51">
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>4</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7" ht="51">
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>5</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="136">
-      <c r="B13" s="16"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" ht="272">
-      <c r="B14" s="15"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="16"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="2:7" ht="51">
+      <c r="B16" s="13"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="16"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="9"/>
+      <c r="E16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" ht="34">
+      <c r="B17" s="14"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="15"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="16"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="15"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="16"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="15"/>
+      <c r="E20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" ht="102">
+      <c r="B21" s="14"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7" ht="187">
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="16"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="15"/>
+      <c r="E22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" ht="51">
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" ht="51">
+      <c r="B24" s="13"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="16"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="15"/>
+      <c r="E24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" ht="34">
+      <c r="B25" s="14"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" ht="34">
+      <c r="B26" s="13"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="16"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="15"/>
+      <c r="E26" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" ht="34">
+      <c r="B27" s="14"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7" ht="34">
+      <c r="B28" s="13"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="16"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="15"/>
+      <c r="E28" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" ht="68">
+      <c r="B29" s="14"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" ht="34">
+      <c r="B30" s="13"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="16"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="15"/>
+      <c r="E30" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" ht="34">
+      <c r="B31" s="14"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:7" ht="34">
+      <c r="B32" s="13"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="16"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="15"/>
+      <c r="E32" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" ht="51">
+      <c r="B33" s="14"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7" ht="34">
+      <c r="B34" s="13"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="16"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="9"/>
+      <c r="E34" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" ht="34">
+      <c r="B35" s="14"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="15"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="5"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="16"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="9"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="15"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="16"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="9"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="15"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="5"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="16"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="9"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="15"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="5"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="16"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="9"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="15"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="5"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="16"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="9"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="15"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="5"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="16"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="9"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="15"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="5"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="16"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="9"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="15"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="5"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="16"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="9"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="15"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="5"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="16"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="9"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="15"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="5"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="16"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="9"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="15"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="5"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="16"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="9"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="15"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="5"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="16"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="9"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="15"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="5"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="16"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="9"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="15"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="5"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="16"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="9"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="15"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="5"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="16"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="9"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="15"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="5"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="16"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="9"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="15"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="5"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="16"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="9"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="15"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="5"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="16"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="9"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="15"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="5"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="16"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="9"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="15"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="5"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="16"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="9"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="15"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="5"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="16"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="9"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="15"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="5"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="16"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="9"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="15"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="5"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="16"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="9"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="15"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="5"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="16"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="9"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="15"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="5"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="16"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="9"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="15"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="5"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="16"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="9"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="15"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="5"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="16"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="9"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="15"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="5"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="16"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="9"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="15"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="5"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="16"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="9"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="15"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="5"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="16"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="9"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="15"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="5"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="16"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="9"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="15"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="5"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="16"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="9"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="15"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="5"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="16"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="9"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="15"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="5"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="16"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="9"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="15"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="5"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="16"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="9"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="15"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="5"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="16"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="9"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="15"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="5"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="16"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="9"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="15"/>
+      <c r="B110" s="13"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="5"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="16"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="9"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="15"/>
+      <c r="B112" s="13"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="5"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="16"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="9"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="15"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="5"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="16"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="9"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="15"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="5"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="16"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="9"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="15"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="5"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="16"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="9"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="7"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="15"/>
+      <c r="B120" s="13"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="5"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="16"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="9"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="15"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="5"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="4"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="16"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="9"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="7"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="15"/>
+      <c r="B124" s="13"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="5"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="16"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="9"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="7"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="15"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="5"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2391,60 +2951,60 @@
   <dimension ref="B1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="65.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="2.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="65.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="34" customHeight="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="3" spans="2:7" ht="20">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="20">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="26" customHeight="1">
       <c r="B7" s="1" t="s">
@@ -2456,10 +3016,10 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2472,969 +3032,995 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="102">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" ht="34">
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="6">
+      <c r="E10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" ht="34">
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:7" ht="68">
       <c r="B12" s="2">
         <v>5</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="E12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" ht="51">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="2:7" ht="51">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="E14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" ht="68">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="2:7" ht="34">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" ht="35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" ht="51">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="9"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="5"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="5"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="5"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="9"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="5"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="9"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="5"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="9"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="5"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="5"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="5"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="9"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="5"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="9"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="5"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="5"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="5"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="9"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="5"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="5"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="9"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="5"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="5"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="6"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="9"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="5"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="9"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="5"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="9"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="5"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="9"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="5"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="9"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="5"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="9"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="5"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="9"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="5"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="9"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="5"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="9"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="5"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="6"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="9"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="7"/>
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="5"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="6"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="9"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="5"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="4"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="6"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="9"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="7"/>
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="5"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="6"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="9"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="7"/>
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="5"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3465,60 +4051,60 @@
   <dimension ref="B1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="65.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.6640625" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="2.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="65.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.6640625" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="34" customHeight="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="3" spans="2:7" ht="20">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="20">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="26" customHeight="1">
       <c r="B7" s="1" t="s">
@@ -3530,7 +4116,7 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3546,27 +4132,27 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="187">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" ht="85">
       <c r="B10" s="2">
@@ -3574,27 +4160,27 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="136">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7" ht="238">
       <c r="B12" s="2">
@@ -3602,27 +4188,27 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="51">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" ht="102">
       <c r="B14" s="2">
@@ -3630,985 +4216,1017 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" ht="34">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" ht="34">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" ht="102">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" ht="34">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" ht="51">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7" ht="34">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" ht="34">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" ht="34">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" ht="34">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" ht="34">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="12" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" ht="69">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7" ht="102">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" ht="34">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="5"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="12" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7" ht="187">
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" ht="68">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="12" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7" ht="51">
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="E34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" ht="51">
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7" ht="68">
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="2:7">
+      <c r="E36" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" ht="170">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" ht="272">
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="2:7">
+      <c r="E38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" ht="51">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="2:7" ht="102">
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:7" ht="85">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="5"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="9"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="5"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="9"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="5"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="9"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="5"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="9"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="5"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="9"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="5"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="9"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="5"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="9"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="5"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="9"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="5"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="9"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="5"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="9"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="5"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="9"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="5"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="9"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="5"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="9"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="5"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="9"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="5"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="9"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="5"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="9"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="5"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="9"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="5"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="9"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="5"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="9"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="5"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="9"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="5"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="9"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="5"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="9"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="5"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="9"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="5"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="9"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="5"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="9"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="5"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="9"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="5"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="9"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="5"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="9"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="5"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="9"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="5"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="6"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="9"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="5"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="9"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="5"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="9"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="5"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="9"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="5"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="9"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="5"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="9"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="5"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="9"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="5"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="9"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="5"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="9"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="5"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="6"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="9"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="7"/>
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="5"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="6"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="9"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="5"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="4"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="6"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="9"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="7"/>
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="5"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="6"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="9"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="7"/>
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="5"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4645,54 +5263,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="65.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="2.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="65.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="34" customHeight="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="3" spans="2:7" ht="20">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="20">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="26" customHeight="1">
       <c r="B7" s="1" t="s">
@@ -4704,10 +5322,10 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -4715,994 +5333,994 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="255">
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="85">
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" ht="34">
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>3</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="34">
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>4</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7" ht="68">
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>5</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="52">
-      <c r="B13" s="16"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" ht="51">
-      <c r="B14" s="15"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="16"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="15"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="16"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="15"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="16"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="15"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="16"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="15"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="16"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="15"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="16"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="15"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="16"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="15"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="16"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="9"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="15"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="16"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="9"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="15"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="16"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="15"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="5"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="16"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="15"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="5"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="16"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="9"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="15"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="16"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="9"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="15"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="5"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="16"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="9"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="15"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="5"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="16"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="9"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="15"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="5"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="16"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="9"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="15"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="5"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="16"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="9"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="15"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="5"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="16"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="9"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="15"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="5"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="16"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="9"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="15"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="5"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="16"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="9"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="15"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="5"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="16"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="9"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="15"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="5"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="16"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="9"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="15"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="5"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="16"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="9"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="15"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="5"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="16"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="9"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="15"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="5"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="16"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="9"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="15"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="5"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="16"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="9"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="15"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="5"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="16"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="9"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="15"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="5"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="16"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="9"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="15"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="5"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="16"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="9"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="15"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="5"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="16"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="9"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="15"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="5"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="16"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="9"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="15"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="5"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="16"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="9"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="15"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="5"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="16"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="9"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="15"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="5"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="16"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="9"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="15"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="5"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="16"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="9"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="15"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="5"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="16"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="9"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="15"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="5"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="16"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="9"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="15"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="5"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="16"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="9"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="15"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="5"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="16"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="9"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="15"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="5"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="16"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="9"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="15"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="5"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="16"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="9"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="15"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="5"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="16"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="9"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="15"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="5"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="16"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="9"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="15"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="5"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="16"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="9"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="15"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="5"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="16"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="9"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="15"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="5"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="16"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="9"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="15"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="5"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="16"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="9"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="15"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="5"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="16"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="9"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="15"/>
+      <c r="B110" s="13"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="5"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="16"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="9"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="15"/>
+      <c r="B112" s="13"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="5"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="16"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="9"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="15"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="5"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="16"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="9"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="15"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="5"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="16"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="9"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="15"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="5"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="16"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="9"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="7"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="15"/>
+      <c r="B120" s="13"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="5"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="16"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="9"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="15"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="5"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="4"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="16"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="9"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="7"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="15"/>
+      <c r="B124" s="13"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="5"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="16"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="9"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="7"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="15"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="5"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5726,7 +6344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5736,6 +6354,34 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>50800</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
